--- a/Output/Output Files/INIS-012020-1020.xlsx
+++ b/Output/Output Files/INIS-012020-1020.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Survey'!$A$1:$Y$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Survey'!$A$1:$Y$41</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,9 +21,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt formatCode="0.0" numFmtId="166"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1622,1065 +1622,1065 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="353">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="44" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="75" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="76" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="86" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="41" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="52" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="33" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="52" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="68" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="73" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="74" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="47" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="56" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="58" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="92" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="98" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="98" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="97" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="91" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="96" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="71" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="104" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="104" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="100" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="99" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="116" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="110" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="115" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="94" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="94" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="113" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="112" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="72" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="113" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="113" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors/>
 </styleSheet>
 </file>
@@ -2978,23 +2978,23 @@
   </sheetPr>
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="J5" sqref="J5:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="53" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="53" min="26" max="27"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" style="53" min="28" max="28"/>
-    <col width="9.140625" customWidth="1" style="53" min="29" max="29"/>
-    <col width="10" bestFit="1" customWidth="1" style="53" min="30" max="30"/>
-    <col width="9.140625" customWidth="1" style="53" min="31" max="34"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="53" min="35" max="35"/>
-    <col width="9.140625" customWidth="1" style="53" min="36" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="53" width="7.28515625"/>
+    <col customWidth="1" max="27" min="26" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="28" min="28" style="53" width="11.42578125"/>
+    <col customWidth="1" max="29" min="29" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="30" min="30" style="53" width="10"/>
+    <col customWidth="1" max="34" min="31" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="35" min="35" style="53" width="10.85546875"/>
+    <col customWidth="1" max="16384" min="36" style="53" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="275" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3030,7 +3030,7 @@
       <c r="Y1" s="53" t="n"/>
       <c r="Z1" s="53" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="279" t="inlineStr">
         <is>
           <t>Date Performed</t>
@@ -3062,7 +3062,7 @@
       <c r="Y2" s="53" t="n"/>
       <c r="Z2" s="53" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="279" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3096,7 +3096,7 @@
       <c r="Y3" s="35" t="n"/>
       <c r="Z3" s="53" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="279" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3139,7 +3139,7 @@
       <c r="X4" s="276" t="n"/>
       <c r="Y4" s="277" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="279" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3179,7 +3179,7 @@
       <c r="X5" s="288" t="n"/>
       <c r="Y5" s="289" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="279" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -3214,7 +3214,7 @@
       <c r="X6" s="293" t="n"/>
       <c r="Y6" s="294" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="295" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -3253,7 +3253,7 @@
       <c r="X7" s="291" t="n"/>
       <c r="Y7" s="300" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="301" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -3304,7 +3304,7 @@
       <c r="X8" s="306" t="n"/>
       <c r="Y8" s="308" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="309" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -3359,7 +3359,7 @@
       <c r="X9" s="313" t="n"/>
       <c r="Y9" s="312" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="316" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -3420,7 +3420,7 @@
       <c r="X10" s="280" t="n"/>
       <c r="Y10" s="281" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="316" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -3481,7 +3481,7 @@
       <c r="X11" s="280" t="n"/>
       <c r="Y11" s="281" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="316" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -3542,7 +3542,7 @@
       <c r="AI12" s="53" t="n"/>
       <c r="AJ12" s="53" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="316" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -3607,7 +3607,7 @@
       <c r="AI13" s="53" t="n"/>
       <c r="AJ13" s="53" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="316" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -3672,7 +3672,7 @@
       <c r="AI14" s="53" t="n"/>
       <c r="AJ14" s="53" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="316" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -3731,7 +3731,7 @@
       <c r="AI15" s="53" t="n"/>
       <c r="AJ15" s="53" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="328" t="n"/>
       <c r="B16" s="280" t="n"/>
       <c r="C16" s="280" t="n"/>
@@ -3782,7 +3782,7 @@
       <c r="AI16" s="53" t="n"/>
       <c r="AJ16" s="53" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="328" t="n"/>
       <c r="B17" s="280" t="n"/>
       <c r="C17" s="280" t="n"/>
@@ -3833,7 +3833,7 @@
       <c r="AI17" s="53" t="n"/>
       <c r="AJ17" s="53" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1">
       <c r="A18" s="328" t="n"/>
       <c r="B18" s="280" t="n"/>
       <c r="C18" s="280" t="n"/>
@@ -3892,7 +3892,7 @@
       <c r="AI18" s="53" t="n"/>
       <c r="AJ18" s="53" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="335" t="n"/>
       <c r="B19" s="296" t="n"/>
       <c r="C19" s="296" t="n"/>
@@ -3941,7 +3941,7 @@
       <c r="AI19" s="53" t="n"/>
       <c r="AJ19" s="53" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -4000,7 +4000,7 @@
       <c r="X20" s="313" t="n"/>
       <c r="Y20" s="312" t="n"/>
     </row>
-    <row r="21" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="71" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="71" thickTop="1">
       <c r="A22" s="48" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="71">
       <c r="A23" s="49" t="n">
         <v>2</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="71">
       <c r="A24" s="50" t="n">
         <v>3</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="71">
       <c r="A25" s="49" t="n">
         <v>4</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="71">
       <c r="A26" s="50" t="n">
         <v>5</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="71">
       <c r="A27" s="49" t="n">
         <v>6</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="71">
       <c r="A28" s="50" t="n">
         <v>7</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="71">
       <c r="A29" s="49" t="n">
         <v>8</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="71">
       <c r="A30" s="50" t="n">
         <v>9</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="71">
       <c r="A31" s="49" t="n">
         <v>10</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="71">
       <c r="A32" s="50" t="n">
         <v>11</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="71">
       <c r="A33" s="49" t="n">
         <v>12</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="71">
       <c r="A34" s="50" t="n">
         <v>13</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="71">
       <c r="A35" s="49" t="n"/>
       <c r="B35" s="346" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="71">
       <c r="A36" s="50" t="n"/>
       <c r="B36" s="346" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="71">
       <c r="A37" s="49" t="n"/>
       <c r="B37" s="346" t="n"/>
       <c r="C37" s="280" t="n"/>
@@ -5287,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="71">
       <c r="A38" s="50" t="n"/>
       <c r="B38" s="346" t="n"/>
       <c r="C38" s="280" t="n"/>
@@ -5344,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="71">
       <c r="A39" s="50" t="n"/>
       <c r="B39" s="346" t="n"/>
       <c r="C39" s="280" t="n"/>
@@ -5401,7 +5401,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="71">
       <c r="A40" s="50" t="n"/>
       <c r="B40" s="346" t="n"/>
       <c r="C40" s="280" t="n"/>
@@ -5458,7 +5458,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="71" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="71" thickBot="1">
       <c r="A41" s="51" t="n"/>
       <c r="B41" s="347" t="n"/>
       <c r="C41" s="296" t="n"/>
@@ -5515,7 +5515,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="42" thickTop="1"/>
   </sheetData>
   <mergeCells count="115">
     <mergeCell ref="J4:Y4"/>
@@ -5635,7 +5635,7 @@
     <mergeCell ref="W13:Y13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
   <pageSetup orientation="landscape" scale="73"/>
 </worksheet>
 </file>
@@ -5648,16 +5648,16 @@
   </sheetPr>
   <dimension ref="A1:DH53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="89" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="89" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="266" t="n"/>
       <c r="B1" s="291" t="n"/>
       <c r="C1" s="291" t="n"/>
@@ -5736,7 +5736,7 @@
       <c r="BX1" s="291" t="n"/>
       <c r="BY1" s="291" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="55" t="n"/>
       <c r="B2" s="56" t="n"/>
       <c r="C2" s="56" t="n"/>
@@ -5815,7 +5815,7 @@
       <c r="BX2" s="56" t="n"/>
       <c r="BY2" s="57" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="58" t="n"/>
       <c r="B3" s="59" t="n"/>
       <c r="C3" s="60" t="n"/>
@@ -5894,7 +5894,7 @@
       <c r="BX3" s="60" t="n"/>
       <c r="BY3" s="61" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="58" t="n"/>
       <c r="B4" s="60" t="n"/>
       <c r="C4" s="60" t="n"/>
@@ -5973,7 +5973,7 @@
       <c r="BX4" s="60" t="n"/>
       <c r="BY4" s="61" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="73" t="n"/>
       <c r="B5" s="89" t="n"/>
       <c r="C5" s="89" t="n"/>
@@ -6052,7 +6052,7 @@
       <c r="BX5" s="89" t="n"/>
       <c r="BY5" s="65" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="73" t="n"/>
       <c r="B6" s="89" t="n"/>
       <c r="C6" s="89" t="n"/>
@@ -6131,7 +6131,7 @@
       <c r="BX6" s="89" t="n"/>
       <c r="BY6" s="65" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="73" t="n"/>
       <c r="B7" s="89" t="n"/>
       <c r="C7" s="89" t="n"/>
@@ -6210,7 +6210,7 @@
       <c r="BX7" s="89" t="n"/>
       <c r="BY7" s="65" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="73" t="n"/>
       <c r="B8" s="89" t="n"/>
       <c r="C8" s="89" t="n"/>
@@ -6289,7 +6289,7 @@
       <c r="BX8" s="89" t="n"/>
       <c r="BY8" s="65" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="73" t="n"/>
       <c r="B9" s="89" t="n"/>
       <c r="C9" s="89" t="n"/>
@@ -6368,7 +6368,7 @@
       <c r="BX9" s="89" t="n"/>
       <c r="BY9" s="65" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="73" t="n"/>
       <c r="B10" s="89" t="n"/>
       <c r="C10" s="89" t="n"/>
@@ -6447,7 +6447,7 @@
       <c r="BX10" s="89" t="n"/>
       <c r="BY10" s="65" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="73" t="n"/>
       <c r="B11" s="89" t="n"/>
       <c r="C11" s="89" t="n"/>
@@ -6526,7 +6526,7 @@
       <c r="BX11" s="89" t="n"/>
       <c r="BY11" s="65" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="73" t="n"/>
       <c r="B12" s="89" t="n"/>
       <c r="C12" s="89" t="n"/>
@@ -6605,7 +6605,7 @@
       <c r="BX12" s="89" t="n"/>
       <c r="BY12" s="65" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="73" t="n"/>
       <c r="B13" s="89" t="n"/>
       <c r="C13" s="89" t="n"/>
@@ -6684,7 +6684,7 @@
       <c r="BX13" s="89" t="n"/>
       <c r="BY13" s="65" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="73" t="n"/>
       <c r="B14" s="89" t="n"/>
       <c r="C14" s="89" t="n"/>
@@ -6763,7 +6763,7 @@
       <c r="BX14" s="89" t="n"/>
       <c r="BY14" s="65" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="73" t="n"/>
       <c r="B15" s="89" t="n"/>
       <c r="C15" s="89" t="n"/>
@@ -6861,7 +6861,7 @@
       <c r="DG15" s="71" t="n"/>
       <c r="DH15" s="71" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="73" t="n"/>
       <c r="B16" s="89" t="n"/>
       <c r="C16" s="89" t="n"/>
@@ -6959,7 +6959,7 @@
       <c r="DG16" s="71" t="n"/>
       <c r="DH16" s="71" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="73" t="n"/>
       <c r="B17" s="89" t="n"/>
       <c r="C17" s="89" t="n"/>
@@ -7057,7 +7057,7 @@
       <c r="DG17" s="71" t="n"/>
       <c r="DH17" s="71" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="89" t="n"/>
@@ -7155,7 +7155,7 @@
       <c r="DG18" s="71" t="n"/>
       <c r="DH18" s="71" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="73" t="n"/>
       <c r="B19" s="89" t="n"/>
       <c r="C19" s="89" t="n"/>
@@ -7253,7 +7253,7 @@
       <c r="DG19" s="71" t="n"/>
       <c r="DH19" s="71" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="73" t="n"/>
       <c r="B20" s="89" t="n"/>
       <c r="C20" s="89" t="n"/>
@@ -7351,7 +7351,7 @@
       <c r="DG20" s="71" t="n"/>
       <c r="DH20" s="71" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="73" t="n"/>
       <c r="B21" s="89" t="n"/>
       <c r="C21" s="89" t="n"/>
@@ -7449,7 +7449,7 @@
       <c r="DG21" s="71" t="n"/>
       <c r="DH21" s="71" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="73" t="n"/>
       <c r="B22" s="89" t="n"/>
       <c r="C22" s="89" t="n"/>
@@ -7547,7 +7547,7 @@
       <c r="DG22" s="71" t="n"/>
       <c r="DH22" s="71" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="73" t="n"/>
       <c r="B23" s="89" t="n"/>
       <c r="C23" s="89" t="n"/>
@@ -7645,7 +7645,7 @@
       <c r="DG23" s="71" t="n"/>
       <c r="DH23" s="71" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="73" t="n"/>
       <c r="B24" s="89" t="n"/>
       <c r="C24" s="89" t="n"/>
@@ -7724,7 +7724,7 @@
       <c r="BX24" s="89" t="n"/>
       <c r="BY24" s="65" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="73" t="n"/>
       <c r="B25" s="89" t="n"/>
       <c r="C25" s="89" t="n"/>
@@ -7803,7 +7803,7 @@
       <c r="BX25" s="89" t="n"/>
       <c r="BY25" s="65" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="73" t="n"/>
       <c r="B26" s="89" t="n"/>
       <c r="C26" s="89" t="n"/>
@@ -7882,7 +7882,7 @@
       <c r="BX26" s="89" t="n"/>
       <c r="BY26" s="65" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="73" t="n"/>
       <c r="B27" s="71" t="n"/>
       <c r="C27" s="71" t="n"/>
@@ -7961,7 +7961,7 @@
       <c r="BX27" s="89" t="n"/>
       <c r="BY27" s="65" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="73" t="n"/>
       <c r="B28" s="71" t="n"/>
       <c r="C28" s="71" t="n"/>
@@ -8040,7 +8040,7 @@
       <c r="BX28" s="89" t="n"/>
       <c r="BY28" s="65" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="73" t="n"/>
       <c r="B29" s="71" t="n"/>
       <c r="C29" s="71" t="n"/>
@@ -8119,7 +8119,7 @@
       <c r="BX29" s="89" t="n"/>
       <c r="BY29" s="65" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="73" t="n"/>
       <c r="B30" s="71" t="n"/>
       <c r="C30" s="71" t="n"/>
@@ -8198,7 +8198,7 @@
       <c r="BX30" s="89" t="n"/>
       <c r="BY30" s="65" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="73" t="n"/>
       <c r="B31" s="71" t="n"/>
       <c r="C31" s="71" t="n"/>
@@ -8277,7 +8277,7 @@
       <c r="BX31" s="89" t="n"/>
       <c r="BY31" s="65" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="73" t="n"/>
       <c r="B32" s="71" t="n"/>
       <c r="C32" s="71" t="n"/>
@@ -8356,7 +8356,7 @@
       <c r="BX32" s="89" t="n"/>
       <c r="BY32" s="65" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="73" t="n"/>
       <c r="B33" s="71" t="n"/>
       <c r="C33" s="71" t="n"/>
@@ -8435,7 +8435,7 @@
       <c r="BX33" s="89" t="n"/>
       <c r="BY33" s="65" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="73" t="n"/>
       <c r="B34" s="71" t="n"/>
       <c r="C34" s="71" t="n"/>
@@ -8514,7 +8514,7 @@
       <c r="BX34" s="89" t="n"/>
       <c r="BY34" s="65" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="73" t="n"/>
       <c r="B35" s="71" t="n"/>
       <c r="C35" s="71" t="n"/>
@@ -8593,7 +8593,7 @@
       <c r="BX35" s="89" t="n"/>
       <c r="BY35" s="65" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="73" t="n"/>
       <c r="B36" s="71" t="n"/>
       <c r="C36" s="71" t="n"/>
@@ -8672,7 +8672,7 @@
       <c r="BX36" s="89" t="n"/>
       <c r="BY36" s="65" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="78" t="n"/>
       <c r="B37" s="81" t="n"/>
       <c r="C37" s="81" t="n"/>
@@ -8751,7 +8751,7 @@
       <c r="BX37" s="81" t="n"/>
       <c r="BY37" s="82" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="284" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -8838,7 +8838,7 @@
       <c r="BX38" s="83" t="n"/>
       <c r="BY38" s="86" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="316" t="inlineStr">
         <is>
           <t>Date</t>
@@ -8923,7 +8923,7 @@
       <c r="BX39" s="53" t="n"/>
       <c r="BY39" s="87" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="316" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9033,7 +9033,7 @@
       <c r="CU40" s="89" t="n"/>
       <c r="CV40" s="89" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="316" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9143,7 +9143,7 @@
       <c r="CU41" s="89" t="n"/>
       <c r="CV41" s="89" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="316" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9251,7 +9251,7 @@
       <c r="CU42" s="89" t="n"/>
       <c r="CV42" s="89" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="316" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9361,7 +9361,7 @@
       <c r="CU43" s="89" t="n"/>
       <c r="CV43" s="89" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="316" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -9471,7 +9471,7 @@
       <c r="CU44" s="89" t="n"/>
       <c r="CV44" s="89" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="351" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -9577,9 +9577,9 @@
       <c r="CU45" s="89" t="n"/>
       <c r="CV45" s="89" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
     <row r="47"/>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="A48" s="89" t="n"/>
       <c r="B48" s="89" t="n"/>
       <c r="C48" s="89" t="n"/>
@@ -9588,7 +9588,7 @@
       <c r="F48" s="89" t="n"/>
       <c r="G48" s="89" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="A49" s="89" t="n"/>
       <c r="B49" s="89" t="n"/>
       <c r="C49" s="89" t="n"/>
@@ -9597,7 +9597,7 @@
       <c r="F49" s="89" t="n"/>
       <c r="G49" s="89" t="n"/>
     </row>
-    <row r="50" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="50">
       <c r="A50" s="89" t="n"/>
       <c r="B50" s="89" t="n"/>
       <c r="C50" s="89" t="n"/>
@@ -9606,7 +9606,7 @@
       <c r="F50" s="89" t="n"/>
       <c r="G50" s="89" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="71" t="n"/>
       <c r="B51" s="71" t="n"/>
       <c r="C51" s="89" t="n"/>
@@ -9615,7 +9615,7 @@
       <c r="F51" s="89" t="n"/>
       <c r="G51" s="89" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="71" t="n"/>
       <c r="B52" s="71" t="n"/>
       <c r="C52" s="89" t="n"/>
@@ -9624,7 +9624,7 @@
       <c r="F52" s="89" t="n"/>
       <c r="G52" s="89" t="n"/>
     </row>
-    <row r="53" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="53">
       <c r="A53" s="89" t="n"/>
       <c r="B53" s="89" t="n"/>
       <c r="C53" s="89" t="n"/>
@@ -9654,8 +9654,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/Output/Output Files/INIS-012020-1020.xlsx
+++ b/Output/Output Files/INIS-012020-1020.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Survey'!$A$1:$Y$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Survey'!$A$1:$Y$41</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,9 +21,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt formatCode="0.0" numFmtId="166"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1622,1200 +1622,1067 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="353">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="67" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="44" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="75" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="76" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="86" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="41" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="52" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="33" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="52" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="68" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="73" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="74" fillId="2" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="47" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="56" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="58" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="92" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="98" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="98" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="97" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="91" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="96" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="71" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="104" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="104" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="100" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="99" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="116" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="110" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="115" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="94" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="94" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="113" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="112" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="72" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="114" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="94" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="94" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="113" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="113" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>21</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>25</col>
-      <colOff>2415</colOff>
-      <row>2</row>
-      <rowOff>125557</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Picture 3"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10183091" y="0"/>
-          <a:ext cx="1942051" cy="584489"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>13</col>
-      <colOff>67235</colOff>
-      <row>0</row>
-      <rowOff>457200</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="1553135" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>21</col>
-      <colOff>78441</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>57</col>
-      <colOff>44823</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Picture 4"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2431676" y="638735"/>
-          <a:ext cx="4000500" cy="5334000"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3111,23 +2978,23 @@
   </sheetPr>
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="J5" sqref="J5:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="53" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="53" min="26" max="27"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" style="53" min="28" max="28"/>
-    <col width="9.140625" customWidth="1" style="53" min="29" max="29"/>
-    <col width="10" bestFit="1" customWidth="1" style="53" min="30" max="30"/>
-    <col width="9.140625" customWidth="1" style="53" min="31" max="34"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="53" min="35" max="35"/>
-    <col width="9.140625" customWidth="1" style="53" min="36" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="53" width="7.28515625"/>
+    <col customWidth="1" max="27" min="26" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="28" min="28" style="53" width="11.42578125"/>
+    <col customWidth="1" max="29" min="29" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="30" min="30" style="53" width="10"/>
+    <col customWidth="1" max="34" min="31" style="53" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="35" min="35" style="53" width="10.85546875"/>
+    <col customWidth="1" max="16384" min="36" style="53" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="1" thickTop="1">
       <c r="A1" s="275" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3163,7 +3030,7 @@
       <c r="Y1" s="53" t="n"/>
       <c r="Z1" s="53" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" s="279" t="inlineStr">
         <is>
           <t>Date Performed</t>
@@ -3195,7 +3062,7 @@
       <c r="Y2" s="53" t="n"/>
       <c r="Z2" s="53" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="279" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3229,7 +3096,7 @@
       <c r="Y3" s="35" t="n"/>
       <c r="Z3" s="53" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="279" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3272,7 +3139,7 @@
       <c r="X4" s="276" t="n"/>
       <c r="Y4" s="277" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="279" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3312,7 +3179,7 @@
       <c r="X5" s="288" t="n"/>
       <c r="Y5" s="289" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="279" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -3347,7 +3214,7 @@
       <c r="X6" s="293" t="n"/>
       <c r="Y6" s="294" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="295" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -3386,7 +3253,7 @@
       <c r="X7" s="291" t="n"/>
       <c r="Y7" s="300" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="301" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -3437,7 +3304,7 @@
       <c r="X8" s="306" t="n"/>
       <c r="Y8" s="308" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="309" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -3492,7 +3359,7 @@
       <c r="X9" s="313" t="n"/>
       <c r="Y9" s="312" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="316" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -3553,7 +3420,7 @@
       <c r="X10" s="280" t="n"/>
       <c r="Y10" s="281" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="316" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -3614,7 +3481,7 @@
       <c r="X11" s="280" t="n"/>
       <c r="Y11" s="281" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="316" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -3675,7 +3542,7 @@
       <c r="AI12" s="53" t="n"/>
       <c r="AJ12" s="53" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="316" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -3740,7 +3607,7 @@
       <c r="AI13" s="53" t="n"/>
       <c r="AJ13" s="53" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="316" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -3805,7 +3672,7 @@
       <c r="AI14" s="53" t="n"/>
       <c r="AJ14" s="53" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="316" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -3864,7 +3731,7 @@
       <c r="AI15" s="53" t="n"/>
       <c r="AJ15" s="53" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="328" t="n"/>
       <c r="B16" s="280" t="n"/>
       <c r="C16" s="280" t="n"/>
@@ -3915,7 +3782,7 @@
       <c r="AI16" s="53" t="n"/>
       <c r="AJ16" s="53" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="328" t="n"/>
       <c r="B17" s="280" t="n"/>
       <c r="C17" s="280" t="n"/>
@@ -3966,7 +3833,7 @@
       <c r="AI17" s="53" t="n"/>
       <c r="AJ17" s="53" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="18" thickBot="1">
       <c r="A18" s="328" t="n"/>
       <c r="B18" s="280" t="n"/>
       <c r="C18" s="280" t="n"/>
@@ -4025,7 +3892,7 @@
       <c r="AI18" s="53" t="n"/>
       <c r="AJ18" s="53" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1" thickTop="1">
       <c r="A19" s="335" t="n"/>
       <c r="B19" s="296" t="n"/>
       <c r="C19" s="296" t="n"/>
@@ -4074,7 +3941,7 @@
       <c r="AI19" s="53" t="n"/>
       <c r="AJ19" s="53" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -4133,7 +4000,7 @@
       <c r="X20" s="313" t="n"/>
       <c r="Y20" s="312" t="n"/>
     </row>
-    <row r="21" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -4240,7 +4107,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="71" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="71" thickTop="1">
       <c r="A22" s="48" t="n">
         <v>1</v>
       </c>
@@ -4317,7 +4184,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="71">
       <c r="A23" s="49" t="n">
         <v>2</v>
       </c>
@@ -4394,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="71">
       <c r="A24" s="50" t="n">
         <v>3</v>
       </c>
@@ -4471,7 +4338,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="71">
       <c r="A25" s="49" t="n">
         <v>4</v>
       </c>
@@ -4548,7 +4415,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="71">
       <c r="A26" s="50" t="n">
         <v>5</v>
       </c>
@@ -4625,7 +4492,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="71">
       <c r="A27" s="49" t="n">
         <v>6</v>
       </c>
@@ -4702,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="71">
       <c r="A28" s="50" t="n">
         <v>7</v>
       </c>
@@ -4779,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="71">
       <c r="A29" s="49" t="n">
         <v>8</v>
       </c>
@@ -4856,7 +4723,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="71">
       <c r="A30" s="50" t="n">
         <v>9</v>
       </c>
@@ -4933,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="71">
       <c r="A31" s="49" t="n">
         <v>10</v>
       </c>
@@ -5010,7 +4877,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="71">
       <c r="A32" s="50" t="n">
         <v>11</v>
       </c>
@@ -5087,7 +4954,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="71">
       <c r="A33" s="49" t="n">
         <v>12</v>
       </c>
@@ -5164,7 +5031,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="71">
       <c r="A34" s="50" t="n">
         <v>13</v>
       </c>
@@ -5241,7 +5108,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="71">
       <c r="A35" s="49" t="n"/>
       <c r="B35" s="346" t="inlineStr">
         <is>
@@ -5302,7 +5169,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="71">
       <c r="A36" s="50" t="n"/>
       <c r="B36" s="346" t="inlineStr">
         <is>
@@ -5363,7 +5230,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="71">
       <c r="A37" s="49" t="n"/>
       <c r="B37" s="346" t="n"/>
       <c r="C37" s="280" t="n"/>
@@ -5420,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="71">
       <c r="A38" s="50" t="n"/>
       <c r="B38" s="346" t="n"/>
       <c r="C38" s="280" t="n"/>
@@ -5477,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="71">
       <c r="A39" s="50" t="n"/>
       <c r="B39" s="346" t="n"/>
       <c r="C39" s="280" t="n"/>
@@ -5534,7 +5401,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="71">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="71">
       <c r="A40" s="50" t="n"/>
       <c r="B40" s="346" t="n"/>
       <c r="C40" s="280" t="n"/>
@@ -5591,7 +5458,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="71" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="71" thickBot="1">
       <c r="A41" s="51" t="n"/>
       <c r="B41" s="347" t="n"/>
       <c r="C41" s="296" t="n"/>
@@ -5648,7 +5515,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="42" thickTop="1"/>
   </sheetData>
   <mergeCells count="115">
     <mergeCell ref="J4:Y4"/>
@@ -5768,9 +5635,8 @@
     <mergeCell ref="W13:Y13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
   <pageSetup orientation="landscape" scale="73"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5782,16 +5648,16 @@
   </sheetPr>
   <dimension ref="A1:DH53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="89" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="89" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="266" t="n"/>
       <c r="B1" s="291" t="n"/>
       <c r="C1" s="291" t="n"/>
@@ -5870,7 +5736,7 @@
       <c r="BX1" s="291" t="n"/>
       <c r="BY1" s="291" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="55" t="n"/>
       <c r="B2" s="56" t="n"/>
       <c r="C2" s="56" t="n"/>
@@ -5949,7 +5815,7 @@
       <c r="BX2" s="56" t="n"/>
       <c r="BY2" s="57" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="58" t="n"/>
       <c r="B3" s="59" t="n"/>
       <c r="C3" s="60" t="n"/>
@@ -6028,7 +5894,7 @@
       <c r="BX3" s="60" t="n"/>
       <c r="BY3" s="61" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="58" t="n"/>
       <c r="B4" s="60" t="n"/>
       <c r="C4" s="60" t="n"/>
@@ -6107,7 +5973,7 @@
       <c r="BX4" s="60" t="n"/>
       <c r="BY4" s="61" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="73" t="n"/>
       <c r="B5" s="89" t="n"/>
       <c r="C5" s="89" t="n"/>
@@ -6186,7 +6052,7 @@
       <c r="BX5" s="89" t="n"/>
       <c r="BY5" s="65" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="73" t="n"/>
       <c r="B6" s="89" t="n"/>
       <c r="C6" s="89" t="n"/>
@@ -6265,7 +6131,7 @@
       <c r="BX6" s="89" t="n"/>
       <c r="BY6" s="65" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="73" t="n"/>
       <c r="B7" s="89" t="n"/>
       <c r="C7" s="89" t="n"/>
@@ -6344,7 +6210,7 @@
       <c r="BX7" s="89" t="n"/>
       <c r="BY7" s="65" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="73" t="n"/>
       <c r="B8" s="89" t="n"/>
       <c r="C8" s="89" t="n"/>
@@ -6423,7 +6289,7 @@
       <c r="BX8" s="89" t="n"/>
       <c r="BY8" s="65" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="73" t="n"/>
       <c r="B9" s="89" t="n"/>
       <c r="C9" s="89" t="n"/>
@@ -6502,7 +6368,7 @@
       <c r="BX9" s="89" t="n"/>
       <c r="BY9" s="65" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="73" t="n"/>
       <c r="B10" s="89" t="n"/>
       <c r="C10" s="89" t="n"/>
@@ -6581,7 +6447,7 @@
       <c r="BX10" s="89" t="n"/>
       <c r="BY10" s="65" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="73" t="n"/>
       <c r="B11" s="89" t="n"/>
       <c r="C11" s="89" t="n"/>
@@ -6660,7 +6526,7 @@
       <c r="BX11" s="89" t="n"/>
       <c r="BY11" s="65" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="73" t="n"/>
       <c r="B12" s="89" t="n"/>
       <c r="C12" s="89" t="n"/>
@@ -6739,7 +6605,7 @@
       <c r="BX12" s="89" t="n"/>
       <c r="BY12" s="65" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="73" t="n"/>
       <c r="B13" s="89" t="n"/>
       <c r="C13" s="89" t="n"/>
@@ -6818,7 +6684,7 @@
       <c r="BX13" s="89" t="n"/>
       <c r="BY13" s="65" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="73" t="n"/>
       <c r="B14" s="89" t="n"/>
       <c r="C14" s="89" t="n"/>
@@ -6897,7 +6763,7 @@
       <c r="BX14" s="89" t="n"/>
       <c r="BY14" s="65" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="73" t="n"/>
       <c r="B15" s="89" t="n"/>
       <c r="C15" s="89" t="n"/>
@@ -6995,7 +6861,7 @@
       <c r="DG15" s="71" t="n"/>
       <c r="DH15" s="71" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="73" t="n"/>
       <c r="B16" s="89" t="n"/>
       <c r="C16" s="89" t="n"/>
@@ -7093,7 +6959,7 @@
       <c r="DG16" s="71" t="n"/>
       <c r="DH16" s="71" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="73" t="n"/>
       <c r="B17" s="89" t="n"/>
       <c r="C17" s="89" t="n"/>
@@ -7191,7 +7057,7 @@
       <c r="DG17" s="71" t="n"/>
       <c r="DH17" s="71" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="89" t="n"/>
@@ -7289,7 +7155,7 @@
       <c r="DG18" s="71" t="n"/>
       <c r="DH18" s="71" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="73" t="n"/>
       <c r="B19" s="89" t="n"/>
       <c r="C19" s="89" t="n"/>
@@ -7387,7 +7253,7 @@
       <c r="DG19" s="71" t="n"/>
       <c r="DH19" s="71" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="73" t="n"/>
       <c r="B20" s="89" t="n"/>
       <c r="C20" s="89" t="n"/>
@@ -7485,7 +7351,7 @@
       <c r="DG20" s="71" t="n"/>
       <c r="DH20" s="71" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="73" t="n"/>
       <c r="B21" s="89" t="n"/>
       <c r="C21" s="89" t="n"/>
@@ -7583,7 +7449,7 @@
       <c r="DG21" s="71" t="n"/>
       <c r="DH21" s="71" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="73" t="n"/>
       <c r="B22" s="89" t="n"/>
       <c r="C22" s="89" t="n"/>
@@ -7681,7 +7547,7 @@
       <c r="DG22" s="71" t="n"/>
       <c r="DH22" s="71" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="73" t="n"/>
       <c r="B23" s="89" t="n"/>
       <c r="C23" s="89" t="n"/>
@@ -7779,7 +7645,7 @@
       <c r="DG23" s="71" t="n"/>
       <c r="DH23" s="71" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="73" t="n"/>
       <c r="B24" s="89" t="n"/>
       <c r="C24" s="89" t="n"/>
@@ -7858,7 +7724,7 @@
       <c r="BX24" s="89" t="n"/>
       <c r="BY24" s="65" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="73" t="n"/>
       <c r="B25" s="89" t="n"/>
       <c r="C25" s="89" t="n"/>
@@ -7937,7 +7803,7 @@
       <c r="BX25" s="89" t="n"/>
       <c r="BY25" s="65" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="73" t="n"/>
       <c r="B26" s="89" t="n"/>
       <c r="C26" s="89" t="n"/>
@@ -8016,7 +7882,7 @@
       <c r="BX26" s="89" t="n"/>
       <c r="BY26" s="65" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="73" t="n"/>
       <c r="B27" s="71" t="n"/>
       <c r="C27" s="71" t="n"/>
@@ -8095,7 +7961,7 @@
       <c r="BX27" s="89" t="n"/>
       <c r="BY27" s="65" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="73" t="n"/>
       <c r="B28" s="71" t="n"/>
       <c r="C28" s="71" t="n"/>
@@ -8174,7 +8040,7 @@
       <c r="BX28" s="89" t="n"/>
       <c r="BY28" s="65" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="73" t="n"/>
       <c r="B29" s="71" t="n"/>
       <c r="C29" s="71" t="n"/>
@@ -8253,7 +8119,7 @@
       <c r="BX29" s="89" t="n"/>
       <c r="BY29" s="65" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="73" t="n"/>
       <c r="B30" s="71" t="n"/>
       <c r="C30" s="71" t="n"/>
@@ -8332,7 +8198,7 @@
       <c r="BX30" s="89" t="n"/>
       <c r="BY30" s="65" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="73" t="n"/>
       <c r="B31" s="71" t="n"/>
       <c r="C31" s="71" t="n"/>
@@ -8411,7 +8277,7 @@
       <c r="BX31" s="89" t="n"/>
       <c r="BY31" s="65" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="73" t="n"/>
       <c r="B32" s="71" t="n"/>
       <c r="C32" s="71" t="n"/>
@@ -8490,7 +8356,7 @@
       <c r="BX32" s="89" t="n"/>
       <c r="BY32" s="65" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="73" t="n"/>
       <c r="B33" s="71" t="n"/>
       <c r="C33" s="71" t="n"/>
@@ -8569,7 +8435,7 @@
       <c r="BX33" s="89" t="n"/>
       <c r="BY33" s="65" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="73" t="n"/>
       <c r="B34" s="71" t="n"/>
       <c r="C34" s="71" t="n"/>
@@ -8648,7 +8514,7 @@
       <c r="BX34" s="89" t="n"/>
       <c r="BY34" s="65" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="73" t="n"/>
       <c r="B35" s="71" t="n"/>
       <c r="C35" s="71" t="n"/>
@@ -8727,7 +8593,7 @@
       <c r="BX35" s="89" t="n"/>
       <c r="BY35" s="65" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="73" t="n"/>
       <c r="B36" s="71" t="n"/>
       <c r="C36" s="71" t="n"/>
@@ -8806,7 +8672,7 @@
       <c r="BX36" s="89" t="n"/>
       <c r="BY36" s="65" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="78" t="n"/>
       <c r="B37" s="81" t="n"/>
       <c r="C37" s="81" t="n"/>
@@ -8885,7 +8751,7 @@
       <c r="BX37" s="81" t="n"/>
       <c r="BY37" s="82" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="284" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -8972,7 +8838,7 @@
       <c r="BX38" s="83" t="n"/>
       <c r="BY38" s="86" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="316" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9057,7 +8923,7 @@
       <c r="BX39" s="53" t="n"/>
       <c r="BY39" s="87" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="316" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9167,7 +9033,7 @@
       <c r="CU40" s="89" t="n"/>
       <c r="CV40" s="89" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="316" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9277,7 +9143,7 @@
       <c r="CU41" s="89" t="n"/>
       <c r="CV41" s="89" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="316" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9385,7 +9251,7 @@
       <c r="CU42" s="89" t="n"/>
       <c r="CV42" s="89" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="316" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9495,7 +9361,7 @@
       <c r="CU43" s="89" t="n"/>
       <c r="CV43" s="89" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="316" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -9605,7 +9471,7 @@
       <c r="CU44" s="89" t="n"/>
       <c r="CV44" s="89" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="351" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -9711,9 +9577,8 @@
       <c r="CU45" s="89" t="n"/>
       <c r="CV45" s="89" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47"/>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="12" r="48">
       <c r="A48" s="89" t="n"/>
       <c r="B48" s="89" t="n"/>
       <c r="C48" s="89" t="n"/>
@@ -9722,7 +9587,7 @@
       <c r="F48" s="89" t="n"/>
       <c r="G48" s="89" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="A49" s="89" t="n"/>
       <c r="B49" s="89" t="n"/>
       <c r="C49" s="89" t="n"/>
@@ -9731,7 +9596,7 @@
       <c r="F49" s="89" t="n"/>
       <c r="G49" s="89" t="n"/>
     </row>
-    <row r="50" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="50">
       <c r="A50" s="89" t="n"/>
       <c r="B50" s="89" t="n"/>
       <c r="C50" s="89" t="n"/>
@@ -9740,7 +9605,7 @@
       <c r="F50" s="89" t="n"/>
       <c r="G50" s="89" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="71" t="n"/>
       <c r="B51" s="71" t="n"/>
       <c r="C51" s="89" t="n"/>
@@ -9749,7 +9614,7 @@
       <c r="F51" s="89" t="n"/>
       <c r="G51" s="89" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="71" t="n"/>
       <c r="B52" s="71" t="n"/>
       <c r="C52" s="89" t="n"/>
@@ -9758,7 +9623,7 @@
       <c r="F52" s="89" t="n"/>
       <c r="G52" s="89" t="n"/>
     </row>
-    <row r="53" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="53">
       <c r="A53" s="89" t="n"/>
       <c r="B53" s="89" t="n"/>
       <c r="C53" s="89" t="n"/>
@@ -9788,8 +9653,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -9798,6 +9663,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>